--- a/daily_ask/day3_answer.xlsx
+++ b/daily_ask/day3_answer.xlsx
@@ -498,6 +498,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -509,18 +521,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -794,7 +794,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -805,7 +805,7 @@
   <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -847,7 +847,7 @@
       <c r="C2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="11" t="s">
         <v>29</v>
       </c>
       <c r="F2" s="9" t="s">
@@ -861,7 +861,7 @@
       <c r="B3" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="15" t="s">
+      <c r="D3" s="11" t="s">
         <v>30</v>
       </c>
     </row>
@@ -872,7 +872,7 @@
       <c r="B4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="11" t="s">
         <v>31</v>
       </c>
     </row>
@@ -886,7 +886,7 @@
       <c r="C5" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="14" t="s">
         <v>32</v>
       </c>
       <c r="F5" s="10" t="s">
@@ -903,7 +903,7 @@
       <c r="C6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D6" s="15" t="s">
+      <c r="D6" s="11" t="s">
         <v>33</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -920,7 +920,7 @@
       <c r="C7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="11" t="s">
         <v>34</v>
       </c>
       <c r="F7" s="9" t="s">
@@ -937,7 +937,7 @@
       <c r="C8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D8" s="15" t="s">
+      <c r="D8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="F8" s="6" t="s">
@@ -954,7 +954,7 @@
       <c r="C9" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D9" s="15" t="s">
+      <c r="D9" s="11" t="s">
         <v>36</v>
       </c>
       <c r="F9" s="10" t="s">
@@ -971,7 +971,7 @@
       <c r="C10" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D10" s="15" t="s">
+      <c r="D10" s="11" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="10" t="s">
@@ -988,7 +988,7 @@
       <c r="C11" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
+      <c r="D11" s="11" t="s">
         <v>38</v>
       </c>
       <c r="F11" s="10" t="s">
@@ -1005,7 +1005,7 @@
       <c r="C12" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D12" s="15" t="s">
+      <c r="D12" s="11" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="10" t="s">
@@ -1022,7 +1022,7 @@
       <c r="C13" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="11" t="s">
         <v>40</v>
       </c>
       <c r="F13" s="9" t="s">
@@ -1039,7 +1039,7 @@
       <c r="C14" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D14" s="18" t="s">
+      <c r="D14" s="14" t="s">
         <v>41</v>
       </c>
       <c r="F14" s="10" t="s">
@@ -1056,7 +1056,7 @@
       <c r="C15" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="D15" s="11" t="s">
         <v>42</v>
       </c>
       <c r="F15" s="10" t="s">
@@ -1070,7 +1070,7 @@
       <c r="B16" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="D16" s="11" t="s">
         <v>43</v>
       </c>
       <c r="F16" s="7"/>
@@ -1082,7 +1082,7 @@
       <c r="B17" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="D17" s="11" t="s">
         <v>44</v>
       </c>
     </row>
@@ -1109,31 +1109,31 @@
   <sheetData>
     <row r="1" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A1" s="1"/>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="C1" s="11"/>
+      <c r="C1" s="15"/>
     </row>
     <row r="2" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
-      <c r="B2" s="12">
+      <c r="B2" s="16">
         <v>43285</v>
       </c>
-      <c r="C2" s="11"/>
+      <c r="C2" s="15"/>
     </row>
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1"/>
-      <c r="B3" s="11" t="s">
+      <c r="B3" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="C3" s="11"/>
+      <c r="C3" s="15"/>
     </row>
     <row r="4" spans="1:3" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
+      <c r="B4" s="17"/>
+      <c r="C4" s="18"/>
     </row>
     <row r="5" spans="1:3" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="1"/>
@@ -1144,179 +1144,179 @@
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="15">
+    <row r="6" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="11">
         <v>1</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="12" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="7" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="16">
+    <row r="7" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="12">
         <v>2</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="11" t="s">
         <v>30</v>
       </c>
-      <c r="C7" s="15" t="b">
+      <c r="C7" s="11" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="16">
+    <row r="8" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="12">
         <v>3</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="13" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="9" spans="1:3" s="16" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="16">
+    <row r="9" spans="1:3" s="12" customFormat="1" ht="51" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="12">
         <v>4</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="14" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="18" t="b">
+      <c r="C9" s="14" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="16">
+    <row r="10" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="12">
         <v>5</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="15" t="b">
+      <c r="C10" s="11" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="16">
+    <row r="11" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="12">
         <v>6</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="17" t="b">
+      <c r="C11" s="13" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="16">
+    <row r="12" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="12">
         <v>7</v>
       </c>
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="C12" s="17" t="b">
+      <c r="C12" s="13" t="b">
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+    <row r="13" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="12">
         <v>8</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="C13" s="17" t="s">
+      <c r="C13" s="13" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="14" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="16">
+    <row r="14" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="12">
         <v>9</v>
       </c>
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="C14" s="17" t="s">
+      <c r="C14" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="16">
+    <row r="15" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="12">
         <v>10</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="C15" s="17" t="s">
+      <c r="C15" s="13" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="16">
+    <row r="16" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="12">
         <v>11</v>
       </c>
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="17" t="s">
+      <c r="C16" s="13" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="17" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="16">
+    <row r="17" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="12">
         <v>12</v>
       </c>
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="17" t="s">
+      <c r="C17" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="18" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="16">
+    <row r="18" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="12">
         <v>13</v>
       </c>
-      <c r="B18" s="18" t="s">
+      <c r="B18" s="14" t="s">
         <v>41</v>
       </c>
-      <c r="C18" s="15" t="s">
+      <c r="C18" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="19" spans="1:3" s="16" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="16">
+    <row r="19" spans="1:3" s="12" customFormat="1" ht="38.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="12">
         <v>14</v>
       </c>
-      <c r="B19" s="15" t="s">
+      <c r="B19" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="15" t="s">
+      <c r="C19" s="11" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:3" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A20" s="16">
+    <row r="20" spans="1:3" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A20" s="12">
         <v>15</v>
       </c>
-      <c r="B20" s="15" t="s">
+      <c r="B20" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="C20" s="17" t="s">
+      <c r="C20" s="13" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="21" spans="1:3" s="16" customFormat="1" ht="33" x14ac:dyDescent="0.2">
-      <c r="A21" s="16">
+    <row r="21" spans="1:3" s="12" customFormat="1" ht="33" x14ac:dyDescent="0.2">
+      <c r="A21" s="12">
         <v>16</v>
       </c>
-      <c r="B21" s="15" t="s">
+      <c r="B21" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="C21" s="11" t="s">
         <v>55</v>
       </c>
     </row>
